--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-11.56979523343323</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.82991953096025</v>
+        <v>-11.72508946210655</v>
       </c>
       <c r="F2" t="n">
-        <v>3.115755885646244</v>
+        <v>1.969655694881544</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.87564776143252</v>
+        <v>-10.92305499002241</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.77217026362932</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.50868997178954</v>
+        <v>-12.33483728235426</v>
       </c>
       <c r="F3" t="n">
-        <v>3.221646431030125</v>
+        <v>2.074132271558518</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.54450414565674</v>
+        <v>-10.67638291218145</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.07068397030974</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.06084475183649</v>
+        <v>-12.88044591098035</v>
       </c>
       <c r="F4" t="n">
-        <v>3.102611213593152</v>
+        <v>1.933494754432697</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.1628242409119</v>
+        <v>-10.45582997850973</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.42117043530871</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.63411741636715</v>
+        <v>-13.45213440686716</v>
       </c>
       <c r="F5" t="n">
-        <v>3.246443252612354</v>
+        <v>2.142919230688948</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.889509326788028</v>
+        <v>-10.21595280584363</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.81486966462973</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.45547612744568</v>
+        <v>-14.21849235370759</v>
       </c>
       <c r="F6" t="n">
-        <v>3.241599100560915</v>
+        <v>2.124459083682114</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.38245753003082</v>
+        <v>-9.735596214580697</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.22252249445195</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.01755487304666</v>
+        <v>-14.7846558977952</v>
       </c>
       <c r="F7" t="n">
-        <v>3.271580474068468</v>
+        <v>2.194843303759233</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.088679346565328</v>
+        <v>-9.593597097959336</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.61538802051129</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.91791253947216</v>
+        <v>-15.58314235580923</v>
       </c>
       <c r="F8" t="n">
-        <v>3.608838195271332</v>
+        <v>2.501753066974975</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.475985758178233</v>
+        <v>-8.97218403587965</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.96275126294196</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.72371759477472</v>
+        <v>-16.43048928802858</v>
       </c>
       <c r="F9" t="n">
-        <v>3.65099541042169</v>
+        <v>2.558416553673966</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.852988527454698</v>
+        <v>-8.331603842439677</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.22853965049331</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.38959211730491</v>
+        <v>-17.06589802184607</v>
       </c>
       <c r="F10" t="n">
-        <v>3.925750477858153</v>
+        <v>2.840948448998414</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.219373439126523</v>
+        <v>-7.715624086039307</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.39007477240861</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.3491531771807</v>
+        <v>-18.03500337049348</v>
       </c>
       <c r="F11" t="n">
-        <v>4.057904182742536</v>
+        <v>2.995254330290998</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.914100213765995</v>
+        <v>-7.40117315638673</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.42603670015837</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.28204521616789</v>
+        <v>-18.9551042296043</v>
       </c>
       <c r="F12" t="n">
-        <v>4.407337745588205</v>
+        <v>3.272130350787821</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.290854229288468</v>
+        <v>-6.838269595706718</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.32483075673442</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.91274072096235</v>
+        <v>-19.56430217313266</v>
       </c>
       <c r="F13" t="n">
-        <v>4.479476334246115</v>
+        <v>3.244793622454297</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.566313097724506</v>
+        <v>-6.130473519477324</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.09059820571473</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.84444136039095</v>
+        <v>-20.5085059617751</v>
       </c>
       <c r="F14" t="n">
-        <v>4.817022086111497</v>
+        <v>3.681212445380393</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.789743154667524</v>
+        <v>-5.323896018307106</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.72974890009861</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.67623463683433</v>
+        <v>-21.41578945640387</v>
       </c>
       <c r="F15" t="n">
-        <v>4.912831558307248</v>
+        <v>3.747197651702693</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.420252183868331</v>
+        <v>-4.985433805242804</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.26809049148288</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.49208148841649</v>
+        <v>-22.20318673391096</v>
       </c>
       <c r="F16" t="n">
-        <v>5.123251049579469</v>
+        <v>3.914595835837003</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.013094657793491</v>
+        <v>-4.560523116514584</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.72799498848308</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.45443120879757</v>
+        <v>-23.11246025857168</v>
       </c>
       <c r="F17" t="n">
-        <v>5.470642213181829</v>
+        <v>4.260520661521088</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.909573819223964</v>
+        <v>-4.527582882564801</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.14111816753941</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.33562174386278</v>
+        <v>-24.06969088854164</v>
       </c>
       <c r="F18" t="n">
-        <v>5.268706534151046</v>
+        <v>4.110037732658289</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.580223848937503</v>
+        <v>-4.262084073237438</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.53458016812182</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.07685556154994</v>
+        <v>-24.76176310905812</v>
       </c>
       <c r="F19" t="n">
-        <v>5.51494656599823</v>
+        <v>4.359655578638638</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.511986766526427</v>
+        <v>-4.24290384957431</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.92369439145464</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.47703489021014</v>
+        <v>-25.18228787633436</v>
       </c>
       <c r="F20" t="n">
-        <v>5.708922124901243</v>
+        <v>4.601941735027621</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.185438549048095</v>
+        <v>-3.928099427745006</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.33041852228667</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.07408317670138</v>
+        <v>-25.86048225583862</v>
       </c>
       <c r="F21" t="n">
-        <v>5.677552967292468</v>
+        <v>4.50985047683892</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.297940707367047</v>
+        <v>-3.944399344782955</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.757819628190555</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.58050654292218</v>
+        <v>-26.36503342275305</v>
       </c>
       <c r="F22" t="n">
-        <v>5.778023299299874</v>
+        <v>4.681150167220063</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.207996586844389</v>
+        <v>-3.965098275575724</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.220640475142611</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.98148450205573</v>
+        <v>-26.79313863337466</v>
       </c>
       <c r="F23" t="n">
-        <v>5.777106838100953</v>
+        <v>4.660883282421072</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.317919561503521</v>
+        <v>-4.05495074997849</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.722734344612267</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.44588157615459</v>
+        <v>-27.20782423358349</v>
       </c>
       <c r="F24" t="n">
-        <v>5.971553719906268</v>
+        <v>4.888244213570487</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.62624329342617</v>
+        <v>-4.317111022081213</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.27096926581107</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.49540975780484</v>
+        <v>-27.29298966356892</v>
       </c>
       <c r="F25" t="n">
-        <v>5.761055674816997</v>
+        <v>4.695211300472077</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.357039362394598</v>
+        <v>-4.030703805115613</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.871329639850457</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.84362573648623</v>
+        <v>-27.65349931461868</v>
       </c>
       <c r="F26" t="n">
-        <v>5.846050904865482</v>
+        <v>4.835010910216028</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.39710180909028</v>
+        <v>-4.06754554531223</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.519899640467509</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.77900212965947</v>
+        <v>-27.55535941251711</v>
       </c>
       <c r="F27" t="n">
-        <v>5.910412665635407</v>
+        <v>4.841923646116459</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.322017452292981</v>
+        <v>-3.9910079428995</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.22404661638451</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.0677397765309</v>
+        <v>-27.85049919547814</v>
       </c>
       <c r="F28" t="n">
-        <v>5.678155213223187</v>
+        <v>4.597359429033017</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.501067785956427</v>
+        <v>-4.109100514531869</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.97506231435824</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.17253056847607</v>
+        <v>-27.86674674330472</v>
       </c>
       <c r="F29" t="n">
-        <v>5.767470903209443</v>
+        <v>4.7149544931574</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.576767480987287</v>
+        <v>-4.167413631388917</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.771466343734296</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.83152844866047</v>
+        <v>-27.53628392727671</v>
       </c>
       <c r="F30" t="n">
-        <v>5.625969294096067</v>
+        <v>4.564366825871867</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.73827412884282</v>
+        <v>-4.315657776465781</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.601290348939273</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.6733341534239</v>
+        <v>-27.32238188344859</v>
       </c>
       <c r="F31" t="n">
-        <v>5.607718623934701</v>
+        <v>4.55459996795194</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.645344963272248</v>
+        <v>-4.214742306161757</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.454689752510101</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.39814703999366</v>
+        <v>-27.02628636238011</v>
       </c>
       <c r="F32" t="n">
-        <v>5.649771100662325</v>
+        <v>4.511578660814028</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.96271547645853</v>
+        <v>-4.447863850561531</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.323776466587336</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.23345896254759</v>
+        <v>-26.81443981009814</v>
       </c>
       <c r="F33" t="n">
-        <v>5.692163977263834</v>
+        <v>4.577563867136327</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.297315460184523</v>
+        <v>-4.790973831134646</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.197114957332469</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.74753814257692</v>
+        <v>-26.31995662406899</v>
       </c>
       <c r="F34" t="n">
-        <v>5.717641598593833</v>
+        <v>4.517234535641653</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.544550507047678</v>
+        <v>-4.980903868459566</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.072935723049302</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.4563522350741</v>
+        <v>-26.00373823353278</v>
       </c>
       <c r="F35" t="n">
-        <v>5.642727441733476</v>
+        <v>4.492673375510575</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.730723053457023</v>
+        <v>-5.140119363317797</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.942567815426163</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.19822439224662</v>
+        <v>-25.72128489202538</v>
       </c>
       <c r="F36" t="n">
-        <v>5.683889641867863</v>
+        <v>4.514118567565323</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.842649150450939</v>
+        <v>-5.157257187737616</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.805734196507942</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.70925306571384</v>
+        <v>-25.24721260612649</v>
       </c>
       <c r="F37" t="n">
-        <v>5.516151057859669</v>
+        <v>4.316974671374611</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.228872084281858</v>
+        <v>-5.489670756889041</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.65882891592693</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.25440028038659</v>
+        <v>-24.70871309794345</v>
       </c>
       <c r="F38" t="n">
-        <v>5.856027239630878</v>
+        <v>4.710162710317329</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.210699967937542</v>
+        <v>-5.45318250886915</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.504048559680028</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.88460818662204</v>
+        <v>-24.33902574260163</v>
       </c>
       <c r="F39" t="n">
-        <v>5.850842687705554</v>
+        <v>4.657714945133374</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.436660022682892</v>
+        <v>-5.718393287533996</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.346745824170515</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.31206869105052</v>
+        <v>-23.76521629365446</v>
       </c>
       <c r="F40" t="n">
-        <v>5.942645915231737</v>
+        <v>4.707806095805818</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.404819542171815</v>
+        <v>-5.649239743923999</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.195579126065001</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.85749084408295</v>
+        <v>-23.31138470794887</v>
       </c>
       <c r="F41" t="n">
-        <v>6.15034220751288</v>
+        <v>4.886018522087393</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.732310405454751</v>
+        <v>-5.917370106122548</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.065001994524419</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.33464973009862</v>
+        <v>-22.75430722203342</v>
       </c>
       <c r="F42" t="n">
-        <v>6.129918215079787</v>
+        <v>4.879498555272214</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.779809280164533</v>
+        <v>-6.0207731139665</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.965062421574769</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.69109758391357</v>
+        <v>-22.13276323692532</v>
       </c>
       <c r="F43" t="n">
-        <v>6.046310769132524</v>
+        <v>4.809271442829194</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.746279892586872</v>
+        <v>-5.921625104546109</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.910789897886132</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.40321093672685</v>
+        <v>-21.8728941178199</v>
       </c>
       <c r="F44" t="n">
-        <v>6.204753818123093</v>
+        <v>4.906835283605737</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.763849763000469</v>
+        <v>-5.848033270272767</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.908786877333093</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.73725786037962</v>
+        <v>-21.14505372593982</v>
       </c>
       <c r="F45" t="n">
-        <v>6.094464258984392</v>
+        <v>4.795079386548764</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.749094737697843</v>
+        <v>-5.852209714879278</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.967316438867789</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.19599587629698</v>
+        <v>-20.59670880601981</v>
       </c>
       <c r="F46" t="n">
-        <v>5.859300315341309</v>
+        <v>4.533547544982444</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.748557953281332</v>
+        <v>-5.856713467056831</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.086023144675273</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.44303135526363</v>
+        <v>-19.78082267752912</v>
       </c>
       <c r="F47" t="n">
-        <v>6.111693729524104</v>
+        <v>4.788166650648333</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.858611850968882</v>
+        <v>-5.968901410107582</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.264299743211755</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.76805768225844</v>
+        <v>-19.0735502934134</v>
       </c>
       <c r="F48" t="n">
-        <v>5.992710881298498</v>
+        <v>4.64585331875877</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.023443943746213</v>
+        <v>-6.161436815698005</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.497691176937008</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.28171790859684</v>
+        <v>-18.55190057898766</v>
       </c>
       <c r="F49" t="n">
-        <v>6.095171243337846</v>
+        <v>4.748444603826536</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.223481238864945</v>
+        <v>-6.444282926290656</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.775809708134564</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.70213475409647</v>
+        <v>-17.95462972334812</v>
       </c>
       <c r="F50" t="n">
-        <v>5.93235536519814</v>
+        <v>4.618280928974095</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.128378751022647</v>
+        <v>-6.302938424811381</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.093387263751464</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.25130130574163</v>
+        <v>-17.51823708502771</v>
       </c>
       <c r="F51" t="n">
-        <v>6.101088964222306</v>
+        <v>4.769366103767614</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.421109550260801</v>
+        <v>-6.576122415906837</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.437128456706946</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.95997138290755</v>
+        <v>-17.22411850168833</v>
       </c>
       <c r="F52" t="n">
-        <v>5.954874126085909</v>
+        <v>4.638757290618555</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.454206891844684</v>
+        <v>-6.590602502849786</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.802982976001029</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.07192048115327</v>
+        <v>-16.28567532629625</v>
       </c>
       <c r="F53" t="n">
-        <v>5.990668482055188</v>
+        <v>4.691545455676394</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.544648519875328</v>
+        <v>-6.682850868672588</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.179481692251941</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.43443007118394</v>
+        <v>-15.62886067733254</v>
       </c>
       <c r="F54" t="n">
-        <v>5.822694236595843</v>
+        <v>4.545225879117264</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.93218068399042</v>
+        <v>-7.099788344970197</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.561544149125307</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.03621458795</v>
+        <v>-15.23565954608698</v>
       </c>
       <c r="F55" t="n">
-        <v>5.930339150560514</v>
+        <v>4.623439296293735</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.198412662276919</v>
+        <v>-7.349825144641481</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.942282894592204</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.98575685279799</v>
+        <v>-15.12559255609658</v>
       </c>
       <c r="F56" t="n">
-        <v>5.73756808351894</v>
+        <v>4.473794274812806</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.394836481811335</v>
+        <v>-7.541182242976149</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.311116034173123</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.62380704843563</v>
+        <v>-14.77471883993833</v>
       </c>
       <c r="F57" t="n">
-        <v>5.751550662953903</v>
+        <v>4.528703392931005</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.268508851691521</v>
+        <v>-7.407902600047378</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.664684681878521</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.37740990895434</v>
+        <v>-14.59938672028193</v>
       </c>
       <c r="F58" t="n">
-        <v>5.630865815358873</v>
+        <v>4.424855246790434</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.495738859812518</v>
+        <v>-7.659196260791468</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.991206897475262</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.73711774617689</v>
+        <v>-13.96116314135347</v>
       </c>
       <c r="F59" t="n">
-        <v>5.61931840425247</v>
+        <v>4.46586033929072</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.824984091676245</v>
+        <v>-8.032261430266452</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.288981854117987</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.48725114644255</v>
+        <v>-13.6425095824887</v>
       </c>
       <c r="F60" t="n">
-        <v>5.71549446092779</v>
+        <v>4.584083833951507</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.909979321724731</v>
+        <v>-8.070373123838717</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.551105690461078</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.29220201870651</v>
+        <v>-13.51399553779432</v>
       </c>
       <c r="F61" t="n">
-        <v>5.659852173850454</v>
+        <v>4.552269538046112</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.016354282313754</v>
+        <v>-8.240743260718098</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.775115527045688</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.93908951876232</v>
+        <v>-13.18573222864372</v>
       </c>
       <c r="F62" t="n">
-        <v>5.579779649670457</v>
+        <v>4.51000758447302</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.158287937420907</v>
+        <v>-8.383907592292372</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.960845487402423</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.51669255217971</v>
+        <v>-12.70038746999809</v>
       </c>
       <c r="F63" t="n">
-        <v>5.473705812046793</v>
+        <v>4.37536634204871</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.233346109612523</v>
+        <v>-8.466506930920822</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.10316017104197</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.42083071077259</v>
+        <v>-12.60068958385835</v>
       </c>
       <c r="F64" t="n">
-        <v>5.367213020732193</v>
+        <v>4.330643035541374</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.07835942857217</v>
+        <v>-8.303507760541333</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.20567793199988</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.18950281186213</v>
+        <v>-12.44904144004263</v>
       </c>
       <c r="F65" t="n">
-        <v>5.294000863241261</v>
+        <v>4.228156488896341</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.194697631623747</v>
+        <v>-8.426431391922298</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.2653807679347</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.17406698681174</v>
+        <v>-12.49726039140871</v>
       </c>
       <c r="F66" t="n">
-        <v>5.310366241793418</v>
+        <v>4.263191491300801</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.304280206408995</v>
+        <v>-8.56517052513607</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.28536738581749</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.12546835866325</v>
+        <v>-12.39316349151415</v>
       </c>
       <c r="F67" t="n">
-        <v>5.267659149923708</v>
+        <v>4.157458053551021</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.255223347661047</v>
+        <v>-8.52450583250967</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.26972336634196</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.8043403545614</v>
+        <v>-12.10315589126707</v>
       </c>
       <c r="F68" t="n">
-        <v>4.991490113780339</v>
+        <v>3.902708024856715</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.263628606085435</v>
+        <v>-8.528132400396826</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.21899266614864</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.81892517992708</v>
+        <v>-12.08955298861452</v>
       </c>
       <c r="F69" t="n">
-        <v>4.946792991878685</v>
+        <v>3.82666792995197</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.174443839127598</v>
+        <v>-8.419793594381543</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.13938907937285</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.84471701652528</v>
+        <v>-12.19520787254725</v>
       </c>
       <c r="F70" t="n">
-        <v>4.884316522717969</v>
+        <v>3.75308918798147</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.283358706467917</v>
+        <v>-8.504121116985102</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.02924223713831</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.92265549534207</v>
+        <v>-12.29599241982286</v>
       </c>
       <c r="F71" t="n">
-        <v>4.843651830091567</v>
+        <v>3.710198803871975</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.177481253386878</v>
+        <v>-8.420448209523631</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.894360802578809</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.87725138908697</v>
+        <v>-12.2627772475134</v>
       </c>
       <c r="F72" t="n">
-        <v>4.612755977174887</v>
+        <v>3.528320532794716</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.199581060583711</v>
+        <v>-8.454252535460967</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.737043432893444</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.00454784961707</v>
+        <v>-12.43945787436249</v>
       </c>
       <c r="F73" t="n">
-        <v>4.491076114563884</v>
+        <v>3.384331386141413</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.853211096603006</v>
+        <v>-8.10733269476091</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.560865324687056</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.32185290128914</v>
+        <v>-12.74114380874438</v>
       </c>
       <c r="F74" t="n">
-        <v>4.52820588542302</v>
+        <v>3.412270360405656</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.55491606865712</v>
+        <v>-7.834829503413223</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.375750651038038</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.5644139960378</v>
+        <v>-12.9982504519502</v>
       </c>
       <c r="F75" t="n">
-        <v>4.402964916439069</v>
+        <v>3.281242593565662</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.31113738974418</v>
+        <v>-7.532135461712516</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.183358634465941</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.70903157322751</v>
+        <v>-13.16467980567422</v>
       </c>
       <c r="F76" t="n">
-        <v>4.281704007519001</v>
+        <v>3.146130028239049</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.277202140778426</v>
+        <v>-7.53443970701266</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.99205836910456</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.04105237329368</v>
+        <v>-13.51108904656345</v>
       </c>
       <c r="F77" t="n">
-        <v>4.440120871903886</v>
+        <v>3.28585108416595</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.111977278915844</v>
+        <v>-7.404839001182414</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.800288374246538</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.25389394059162</v>
+        <v>-13.75328355683254</v>
       </c>
       <c r="F78" t="n">
-        <v>4.318414824687201</v>
+        <v>3.140945476313726</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.814834373620029</v>
+        <v>-7.103166159103361</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.60934992996677</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.61226954627819</v>
+        <v>-14.08813229431253</v>
       </c>
       <c r="F79" t="n">
-        <v>4.073955346026492</v>
+        <v>2.888002185411578</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.807528868634345</v>
+        <v>-7.139602037911885</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.417569647063427</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.08334369482634</v>
+        <v>-14.57767968217035</v>
       </c>
       <c r="F80" t="n">
-        <v>4.29398458758454</v>
+        <v>3.099207214854303</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.747068614111255</v>
+        <v>-7.048545071647681</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.218586364464949</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.60063367240577</v>
+        <v>-15.03803123469112</v>
       </c>
       <c r="F81" t="n">
-        <v>4.185685058477782</v>
+        <v>3.030734470992075</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.629800857557914</v>
+        <v>-6.970933900401929</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.013366030628085</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.27601320679906</v>
+        <v>-15.70458655696908</v>
       </c>
       <c r="F82" t="n">
-        <v>4.22776371981109</v>
+        <v>3.079778237437181</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.565033235399895</v>
+        <v>-6.864689862841321</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.794159443877626</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.02438232953496</v>
+        <v>-16.41883713849944</v>
       </c>
       <c r="F83" t="n">
-        <v>4.255048078933247</v>
+        <v>3.122878098392143</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.489438278791769</v>
+        <v>-6.859308926373372</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.562853219925081</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.81714745120716</v>
+        <v>-17.24213351039855</v>
       </c>
       <c r="F84" t="n">
-        <v>4.285526959948785</v>
+        <v>3.128560157825452</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.168729228380847</v>
+        <v>-6.515924007440581</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.316697726031149</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.12588022787178</v>
+        <v>-18.58078219905651</v>
       </c>
       <c r="F85" t="n">
-        <v>4.184820966490228</v>
+        <v>3.083784482106749</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.864071341253881</v>
+        <v>-6.165809644847142</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.05848132224185</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.08870127115516</v>
+        <v>-19.59589389988974</v>
       </c>
       <c r="F86" t="n">
-        <v>4.125696126856994</v>
+        <v>3.035997576734449</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.467570949692208</v>
+        <v>-5.784299940039245</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.794226906361573</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.19535435345773</v>
+        <v>-20.63298757719423</v>
       </c>
       <c r="F87" t="n">
-        <v>4.062643596371241</v>
+        <v>2.918847650906685</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.40357577340185</v>
+        <v>-5.689577128979357</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.530481204364625</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.51977170892674</v>
+        <v>-22.03171684359288</v>
       </c>
       <c r="F88" t="n">
-        <v>3.984692025251604</v>
+        <v>2.882503418218053</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.122143631516107</v>
+        <v>-5.351101823612212</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.282699008403086</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.07020148835247</v>
+        <v>-23.56961728919907</v>
       </c>
       <c r="F89" t="n">
-        <v>4.078956605712031</v>
+        <v>3.002350358431213</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.248916399932541</v>
+        <v>-5.479249283827027</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.061029265584398</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.50752686352852</v>
+        <v>-24.95975800493355</v>
       </c>
       <c r="F90" t="n">
-        <v>4.001293065254912</v>
+        <v>2.988393963601933</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.175167458025098</v>
+        <v>-5.418448629430051</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.883970774917613</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.95231485132436</v>
+        <v>-26.40906283720978</v>
       </c>
       <c r="F91" t="n">
-        <v>3.885400000499953</v>
+        <v>2.906619440052512</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.056511917370534</v>
+        <v>-5.268620315709338</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.762708611435775</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.70617283230483</v>
+        <v>-28.10789386934647</v>
       </c>
       <c r="F92" t="n">
-        <v>3.899801533625852</v>
+        <v>2.963544772808337</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.197777865032759</v>
+        <v>-5.445641342432316</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.711605213797371</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.71766114860478</v>
+        <v>-30.01628030076783</v>
       </c>
       <c r="F93" t="n">
-        <v>3.933710597985923</v>
+        <v>2.986744333443876</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.515200747430407</v>
+        <v>-5.770422099027015</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.737757050264038</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.81503497154645</v>
+        <v>-32.1586785531822</v>
       </c>
       <c r="F94" t="n">
-        <v>3.879979787123478</v>
+        <v>2.935710536966828</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.325388540831063</v>
+        <v>-5.587378612996843</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.844110375394053</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.8342084696145</v>
+        <v>-34.05807057255129</v>
       </c>
       <c r="F95" t="n">
-        <v>3.657227346574351</v>
+        <v>2.754329773397555</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.584079352680728</v>
+        <v>-5.848151100998343</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.033947198801808</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.28616113041864</v>
+        <v>-36.53657442351845</v>
       </c>
       <c r="F96" t="n">
-        <v>3.530493855066443</v>
+        <v>2.761530539960504</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.789432122753201</v>
+        <v>-6.1142128793479</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.291739019608841</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.63485479871009</v>
+        <v>-38.82393065299642</v>
       </c>
       <c r="F97" t="n">
-        <v>3.473594706916301</v>
+        <v>2.751082882292807</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.205112737978004</v>
+        <v>-6.484201357655079</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.618195408625175</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.88128448950481</v>
+        <v>-41.09497387313359</v>
       </c>
       <c r="F98" t="n">
-        <v>2.975537322211358</v>
+        <v>2.294606651413186</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.314132343741057</v>
+        <v>-6.544046273944608</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.979979266432168</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.2044481672549</v>
+        <v>-43.38244793333713</v>
       </c>
       <c r="F99" t="n">
-        <v>2.917486051411145</v>
+        <v>2.240430702254123</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.621971660458562</v>
+        <v>-6.862830755837797</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.385287828758352</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.46116840808322</v>
+        <v>-45.66355913435958</v>
       </c>
       <c r="F100" t="n">
-        <v>2.703269792314823</v>
+        <v>1.987408857534925</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.715476887354169</v>
+        <v>-6.909858307645276</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.778812089247015</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.59411401784586</v>
+        <v>-47.76534506335892</v>
       </c>
       <c r="F101" t="n">
-        <v>2.413301468976274</v>
+        <v>1.675131250154075</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.639567715477842</v>
+        <v>-6.849764637601754</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.207469419676865</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.1910246557136</v>
+        <v>-50.3768274342895</v>
       </c>
       <c r="F102" t="n">
-        <v>2.116682255794128</v>
+        <v>1.549288035239404</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.837366226810639</v>
+        <v>-7.074009600674838</v>
       </c>
     </row>
   </sheetData>
